--- a/raw_data/20200818_saline/20200818_Sensor1_Test_46.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_46.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D814B3F1-598E-490E-8164-D79900E4A37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>40688.274453</v>
+        <v>40688.274452999998</v>
       </c>
       <c r="B2" s="1">
         <v>11.302298</v>
       </c>
       <c r="C2" s="1">
-        <v>909.965000</v>
+        <v>909.96500000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-180.013000</v>
+        <v>-180.01300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>40699.032711</v>
@@ -496,208 +912,208 @@
         <v>11.305287</v>
       </c>
       <c r="H2" s="1">
-        <v>924.228000</v>
+        <v>924.22799999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-153.411000</v>
+        <v>-153.411</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>40709.473992</v>
+        <v>40709.473991999999</v>
       </c>
       <c r="L2" s="1">
         <v>11.308187</v>
       </c>
       <c r="M2" s="1">
-        <v>945.140000</v>
+        <v>945.14</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.705000</v>
+        <v>-111.705</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>40720.235194</v>
+        <v>40720.235194000001</v>
       </c>
       <c r="Q2" s="1">
         <v>11.311176</v>
       </c>
       <c r="R2" s="1">
-        <v>951.704000</v>
+        <v>951.70399999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-97.891000</v>
+        <v>-97.891000000000005</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>40730.803916</v>
+        <v>40730.803915999997</v>
       </c>
       <c r="V2" s="1">
         <v>11.314112</v>
       </c>
       <c r="W2" s="1">
-        <v>958.615000</v>
+        <v>958.61500000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-85.172900</v>
+        <v>-85.172899999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>40741.351344</v>
+        <v>40741.351344000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.317042</v>
+        <v>11.317042000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.572000</v>
+        <v>966.572</v>
       </c>
       <c r="AC2" s="1">
-        <v>-75.470300</v>
+        <v>-75.470299999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>40752.003921</v>
+        <v>40752.003921000003</v>
       </c>
       <c r="AF2" s="1">
         <v>11.320001</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.821000</v>
+        <v>971.82100000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.075800</v>
+        <v>-74.075800000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>40762.358435</v>
+        <v>40762.358435000002</v>
       </c>
       <c r="AK2" s="1">
         <v>11.322877</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.519000</v>
+        <v>979.51900000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.274900</v>
+        <v>-79.274900000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>40772.293269</v>
+        <v>40772.293269000002</v>
       </c>
       <c r="AP2" s="1">
         <v>11.325637</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.838000</v>
+        <v>987.83799999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.042700</v>
+        <v>-91.042699999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>40782.941911</v>
+        <v>40782.941911000002</v>
       </c>
       <c r="AU2" s="1">
         <v>11.328595</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.715000</v>
+        <v>997.71500000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.824000</v>
+        <v>-108.824</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>40793.654009</v>
+        <v>40793.654008999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.331571</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.572000</v>
+        <v>-124.572</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>40804.632467</v>
+        <v>40804.632467000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.334620</v>
+        <v>11.334619999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.140000</v>
+        <v>-197.14</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>40816.403484</v>
+        <v>40816.403484000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.337890</v>
+        <v>11.33789</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.351000</v>
+        <v>-315.351</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>40827.117566</v>
+        <v>40827.117566000001</v>
       </c>
       <c r="BO2" s="1">
         <v>11.340866</v>
       </c>
       <c r="BP2" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-502.152000</v>
+        <v>-502.15199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>40837.894639</v>
+        <v>40837.894638999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>11.343860</v>
+        <v>11.343859999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1340.660000</v>
+        <v>1340.66</v>
       </c>
       <c r="BV2" s="1">
-        <v>-707.663000</v>
+        <v>-707.66300000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>40848.585906</v>
@@ -706,90 +1122,90 @@
         <v>11.346829</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1477.900000</v>
+        <v>1477.9</v>
       </c>
       <c r="CA2" s="1">
-        <v>-926.526000</v>
+        <v>-926.52599999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>40859.497891</v>
+        <v>40859.497890999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.349861</v>
+        <v>11.349861000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1837.380000</v>
+        <v>1837.38</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1448.890000</v>
+        <v>-1448.89</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>40688.664309</v>
       </c>
       <c r="B3" s="1">
-        <v>11.302407</v>
+        <v>11.302407000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>909.837000</v>
+        <v>909.83699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-179.867000</v>
+        <v>-179.86699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>40699.687894</v>
+        <v>40699.687894000002</v>
       </c>
       <c r="G3" s="1">
         <v>11.305469</v>
       </c>
       <c r="H3" s="1">
-        <v>924.590000</v>
+        <v>924.59</v>
       </c>
       <c r="I3" s="1">
-        <v>-153.574000</v>
+        <v>-153.57400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>40710.143559</v>
+        <v>40710.143558999996</v>
       </c>
       <c r="L3" s="1">
         <v>11.308373</v>
       </c>
       <c r="M3" s="1">
-        <v>944.859000</v>
+        <v>944.85900000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.829000</v>
+        <v>-111.82899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>40720.648362</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.311291</v>
+        <v>11.311291000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>951.657000</v>
+        <v>951.65700000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-97.913300</v>
+        <v>-97.913300000000007</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>40731.204221</v>
@@ -798,210 +1214,210 @@
         <v>11.314223</v>
       </c>
       <c r="W3" s="1">
-        <v>958.713000</v>
+        <v>958.71299999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-85.186200</v>
+        <v>-85.186199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>40741.703041</v>
+        <v>40741.703041000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.317140</v>
+        <v>11.31714</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.525000</v>
+        <v>966.52499999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-75.475500</v>
+        <v>-75.475499999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>40752.386831</v>
+        <v>40752.386831000003</v>
       </c>
       <c r="AF3" s="1">
         <v>11.320107</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.848000</v>
+        <v>971.84799999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.049200</v>
+        <v>-74.049199999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>40762.730402</v>
+        <v>40762.730402000001</v>
       </c>
       <c r="AK3" s="1">
         <v>11.322981</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.565000</v>
+        <v>979.56500000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.265500</v>
+        <v>-79.265500000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>40772.706933</v>
+        <v>40772.706933000001</v>
       </c>
       <c r="AP3" s="1">
         <v>11.325752</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.829000</v>
+        <v>987.82899999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.037500</v>
+        <v>-91.037499999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>40783.360502</v>
+        <v>40783.360502000003</v>
       </c>
       <c r="AU3" s="1">
         <v>11.328711</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.723000</v>
+        <v>997.72299999999996</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.783000</v>
+        <v>-108.783</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>40794.092441</v>
+        <v>40794.092441000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.331692</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.578000</v>
+        <v>-124.578</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>40805.070394</v>
+        <v>40805.070394000002</v>
       </c>
       <c r="BE3" s="1">
         <v>11.334742</v>
       </c>
       <c r="BF3" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.163000</v>
+        <v>-197.16300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>40816.780475</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.337995</v>
+        <v>11.337994999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.359000</v>
+        <v>-315.35899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>40827.549084</v>
+        <v>40827.549083999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.340986</v>
+        <v>11.340985999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-502.152000</v>
+        <v>-502.15199999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>40838.320206</v>
+        <v>40838.320205999997</v>
       </c>
       <c r="BT3" s="1">
         <v>11.343978</v>
       </c>
       <c r="BU3" s="1">
-        <v>1340.730000</v>
+        <v>1340.73</v>
       </c>
       <c r="BV3" s="1">
-        <v>-707.699000</v>
+        <v>-707.69899999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>40849.075820</v>
+        <v>40849.075819999998</v>
       </c>
       <c r="BY3" s="1">
         <v>11.346966</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1477.740000</v>
+        <v>1477.74</v>
       </c>
       <c r="CA3" s="1">
-        <v>-926.638000</v>
+        <v>-926.63800000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>40860.044508</v>
+        <v>40860.044507999999</v>
       </c>
       <c r="CD3" s="1">
         <v>11.350012</v>
       </c>
       <c r="CE3" s="1">
-        <v>1838.590000</v>
+        <v>1838.59</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1449.210000</v>
+        <v>-1449.21</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>40689.331428</v>
+        <v>40689.331427999998</v>
       </c>
       <c r="B4" s="1">
-        <v>11.302592</v>
+        <v>11.302592000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>909.651000</v>
+        <v>909.65099999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-180.047000</v>
+        <v>-180.047</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>40700.064885</v>
@@ -1010,148 +1426,148 @@
         <v>11.305574</v>
       </c>
       <c r="H4" s="1">
-        <v>924.587000</v>
+        <v>924.58699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-153.756000</v>
+        <v>-153.756</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>40710.521511</v>
+        <v>40710.521510999999</v>
       </c>
       <c r="L4" s="1">
-        <v>11.308478</v>
+        <v>11.308477999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>944.891000</v>
+        <v>944.89099999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.780000</v>
+        <v>-111.78</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>40720.998010</v>
+        <v>40720.998010000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.311388</v>
+        <v>11.311388000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>951.678000</v>
+        <v>951.678</v>
       </c>
       <c r="S4" s="1">
-        <v>-97.844800</v>
+        <v>-97.844800000000006</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>40731.585611</v>
+        <v>40731.585611000002</v>
       </c>
       <c r="V4" s="1">
-        <v>11.314329</v>
+        <v>11.314329000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>958.655000</v>
+        <v>958.65499999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-85.226000</v>
+        <v>-85.225999999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>40742.051880</v>
+        <v>40742.051879999999</v>
       </c>
       <c r="AA4" s="1">
         <v>11.317237</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.664000</v>
+        <v>966.66399999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-75.544100</v>
+        <v>-75.5441</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>40752.805495</v>
+        <v>40752.805495000001</v>
       </c>
       <c r="AF4" s="1">
         <v>11.320224</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.808000</v>
+        <v>971.80799999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.013000</v>
+        <v>-74.013000000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>40763.162915</v>
+        <v>40763.162915000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.323101</v>
+        <v>11.323100999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.506000</v>
+        <v>979.50599999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.266000</v>
+        <v>-79.266000000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>40773.055125</v>
+        <v>40773.055124999999</v>
       </c>
       <c r="AP4" s="1">
         <v>11.325849</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.845000</v>
+        <v>987.84500000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.050100</v>
+        <v>-91.0501</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>40783.725559</v>
+        <v>40783.725558999999</v>
       </c>
       <c r="AU4" s="1">
         <v>11.328813</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.692000</v>
+        <v>997.69200000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.815000</v>
+        <v>-108.815</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>40794.452042</v>
+        <v>40794.452041999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>11.331792</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.564000</v>
+        <v>-124.56399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>40805.431483</v>
@@ -1160,43 +1576,43 @@
         <v>11.334842</v>
       </c>
       <c r="BF4" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.138000</v>
+        <v>-197.13800000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>40817.155915</v>
+        <v>40817.155915000003</v>
       </c>
       <c r="BJ4" s="1">
         <v>11.338099</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.384000</v>
+        <v>-315.38400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>40827.968737</v>
+        <v>40827.968737000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.341102</v>
+        <v>11.341101999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-502.151000</v>
+        <v>-502.15100000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>40838.731389</v>
@@ -1205,317 +1621,317 @@
         <v>11.344092</v>
       </c>
       <c r="BU4" s="1">
-        <v>1340.750000</v>
+        <v>1340.75</v>
       </c>
       <c r="BV4" s="1">
-        <v>-707.771000</v>
+        <v>-707.77099999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>40849.511935</v>
+        <v>40849.511935000002</v>
       </c>
       <c r="BY4" s="1">
         <v>11.347087</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1477.960000</v>
+        <v>1477.96</v>
       </c>
       <c r="CA4" s="1">
-        <v>-926.663000</v>
+        <v>-926.66300000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>40860.565777</v>
+        <v>40860.565777000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.350157</v>
+        <v>11.350156999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1838.160000</v>
+        <v>1838.16</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1447.770000</v>
+        <v>-1447.77</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>40689.690565</v>
+        <v>40689.690564999997</v>
       </c>
       <c r="B5" s="1">
         <v>11.302692</v>
       </c>
       <c r="C5" s="1">
-        <v>909.908000</v>
+        <v>909.90800000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-180.271000</v>
+        <v>-180.27099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>40700.410564</v>
+        <v>40700.410563999998</v>
       </c>
       <c r="G5" s="1">
-        <v>11.305670</v>
+        <v>11.305669999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>924.078000</v>
+        <v>924.07799999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-153.229000</v>
+        <v>-153.22900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>40710.842918</v>
+        <v>40710.842918000002</v>
       </c>
       <c r="L5" s="1">
         <v>11.308567</v>
       </c>
       <c r="M5" s="1">
-        <v>945.081000</v>
+        <v>945.08100000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.559000</v>
+        <v>-111.559</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>40721.346238</v>
+        <v>40721.346237999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>11.311485</v>
+        <v>11.311484999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>951.709000</v>
+        <v>951.70899999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-97.868200</v>
+        <v>-97.868200000000002</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>40731.908047</v>
+        <v>40731.908046999997</v>
       </c>
       <c r="V5" s="1">
-        <v>11.314419</v>
+        <v>11.314418999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>958.694000</v>
+        <v>958.69399999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-85.168100</v>
+        <v>-85.168099999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>40742.470348</v>
+        <v>40742.470348000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.317353</v>
+        <v>11.317353000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.643000</v>
+        <v>966.64300000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-75.576700</v>
+        <v>-75.576700000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>40753.106526</v>
+        <v>40753.106526000003</v>
       </c>
       <c r="AF5" s="1">
         <v>11.320307</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.801000</v>
+        <v>971.80100000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.000800</v>
+        <v>-74.000799999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>40763.461506</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.323184</v>
+        <v>11.323183999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.555000</v>
+        <v>979.55499999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.268500</v>
+        <v>-79.268500000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>40773.411779</v>
+        <v>40773.411779000002</v>
       </c>
       <c r="AP5" s="1">
         <v>11.325948</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.815000</v>
+        <v>987.81500000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.046700</v>
+        <v>-91.046700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>40784.089622</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.328914</v>
+        <v>11.328913999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.696000</v>
+        <v>997.69600000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.795000</v>
+        <v>-108.795</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>40794.812137</v>
+        <v>40794.812137000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.331892</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.563000</v>
+        <v>-124.563</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>40805.794554</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.334943</v>
+        <v>11.334943000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1044.240000</v>
+        <v>1044.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.150000</v>
+        <v>-197.15</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>40817.905401</v>
+        <v>40817.905401000004</v>
       </c>
       <c r="BJ5" s="1">
         <v>11.338307</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.398000</v>
+        <v>-315.39800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>40828.784619</v>
+        <v>40828.784618999998</v>
       </c>
       <c r="BO5" s="1">
         <v>11.341329</v>
       </c>
       <c r="BP5" s="1">
-        <v>1218.850000</v>
+        <v>1218.8499999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-502.119000</v>
+        <v>-502.11900000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>40839.168365</v>
+        <v>40839.168364999998</v>
       </c>
       <c r="BT5" s="1">
         <v>11.344213</v>
       </c>
       <c r="BU5" s="1">
-        <v>1340.690000</v>
+        <v>1340.69</v>
       </c>
       <c r="BV5" s="1">
-        <v>-707.785000</v>
+        <v>-707.78499999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>40849.966270</v>
+        <v>40849.966269999997</v>
       </c>
       <c r="BY5" s="1">
         <v>11.347213</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1477.890000</v>
+        <v>1477.89</v>
       </c>
       <c r="CA5" s="1">
-        <v>-926.573000</v>
+        <v>-926.57299999999998</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>40861.102944</v>
+        <v>40861.102943999998</v>
       </c>
       <c r="CD5" s="1">
         <v>11.350306</v>
       </c>
       <c r="CE5" s="1">
-        <v>1837.890000</v>
+        <v>1837.89</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1449.370000</v>
+        <v>-1449.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>40690.030291</v>
+        <v>40690.030291000003</v>
       </c>
       <c r="B6" s="1">
-        <v>11.302786</v>
+        <v>11.302785999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>909.807000</v>
+        <v>909.80700000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-179.932000</v>
+        <v>-179.93199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>40700.758296</v>
@@ -1524,148 +1940,148 @@
         <v>11.305766</v>
       </c>
       <c r="H6" s="1">
-        <v>924.472000</v>
+        <v>924.47199999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-153.494000</v>
+        <v>-153.494</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>40711.186647</v>
+        <v>40711.186647000002</v>
       </c>
       <c r="L6" s="1">
-        <v>11.308663</v>
+        <v>11.308662999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>945.132000</v>
+        <v>945.13199999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.737000</v>
+        <v>-111.73699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>40721.773257</v>
+        <v>40721.773257000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.311604</v>
+        <v>11.311604000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>951.734000</v>
+        <v>951.73400000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-97.865200</v>
+        <v>-97.865200000000002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>40732.592530</v>
+        <v>40732.592530000002</v>
       </c>
       <c r="V6" s="1">
-        <v>11.314609</v>
+        <v>11.314609000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>958.703000</v>
+        <v>958.70299999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-85.166800</v>
+        <v>-85.166799999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>40742.750590</v>
+        <v>40742.750590000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.317431</v>
+        <v>11.317430999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.665000</v>
+        <v>966.66499999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-75.643200</v>
+        <v>-75.643199999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>40753.448798</v>
+        <v>40753.448797999998</v>
       </c>
       <c r="AF6" s="1">
         <v>11.320402</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.813000</v>
+        <v>971.81299999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.052800</v>
+        <v>-74.052800000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>40763.806722</v>
+        <v>40763.806722000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>11.323280</v>
+        <v>11.32328</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.562000</v>
+        <v>979.56200000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.269400</v>
+        <v>-79.269400000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>40773.773331</v>
+        <v>40773.773330999997</v>
       </c>
       <c r="AP6" s="1">
         <v>11.326048</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.819000</v>
+        <v>987.81899999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.048400</v>
+        <v>-91.048400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>40784.457195</v>
+        <v>40784.457195000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.329016</v>
+        <v>11.329015999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.716000</v>
+        <v>997.71600000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.817000</v>
+        <v>-108.81699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>40795.517943</v>
+        <v>40795.517942999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.332088</v>
+        <v>11.332088000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.578000</v>
+        <v>-124.578</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>40806.515774</v>
@@ -1674,58 +2090,58 @@
         <v>11.335143</v>
       </c>
       <c r="BF6" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.123000</v>
+        <v>-197.12299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>40818.280346</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.338411</v>
+        <v>11.338411000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.373000</v>
+        <v>-315.37299999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>40829.204266</v>
+        <v>40829.204266000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.341446</v>
+        <v>11.341445999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-502.195000</v>
+        <v>-502.19499999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>40839.596412</v>
+        <v>40839.596411999999</v>
       </c>
       <c r="BT6" s="1">
         <v>11.344332</v>
       </c>
       <c r="BU6" s="1">
-        <v>1340.630000</v>
+        <v>1340.63</v>
       </c>
       <c r="BV6" s="1">
-        <v>-707.728000</v>
+        <v>-707.72799999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>40850.726143</v>
@@ -1734,13 +2150,13 @@
         <v>11.347424</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1477.810000</v>
+        <v>1477.81</v>
       </c>
       <c r="CA6" s="1">
-        <v>-926.522000</v>
+        <v>-926.52200000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>40861.954115</v>
@@ -1749,739 +2165,739 @@
         <v>11.350543</v>
       </c>
       <c r="CE6" s="1">
-        <v>1837.510000</v>
+        <v>1837.51</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1447.620000</v>
+        <v>-1447.62</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>40690.373221</v>
+        <v>40690.373221000002</v>
       </c>
       <c r="B7" s="1">
-        <v>11.302881</v>
+        <v>11.302880999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>909.864000</v>
+        <v>909.86400000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-179.982000</v>
+        <v>-179.982</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40701.172915</v>
+        <v>40701.172915000003</v>
       </c>
       <c r="G7" s="1">
-        <v>11.305881</v>
+        <v>11.305880999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>923.997000</v>
+        <v>923.99699999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-153.638000</v>
+        <v>-153.63800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>40711.615722</v>
+        <v>40711.615722000002</v>
       </c>
       <c r="L7" s="1">
-        <v>11.308782</v>
+        <v>11.308782000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>945.066000</v>
+        <v>945.06600000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.831000</v>
+        <v>-111.831</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>40722.045561</v>
+        <v>40722.045560999999</v>
       </c>
       <c r="Q7" s="1">
         <v>11.311679</v>
       </c>
       <c r="R7" s="1">
-        <v>951.708000</v>
+        <v>951.70799999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-97.826600</v>
+        <v>-97.826599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>40732.941179</v>
+        <v>40732.941179000001</v>
       </c>
       <c r="V7" s="1">
-        <v>11.314706</v>
+        <v>11.314705999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>958.699000</v>
+        <v>958.69899999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-85.173200</v>
+        <v>-85.173199999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>40743.097293</v>
+        <v>40743.097292999999</v>
       </c>
       <c r="AA7" s="1">
         <v>11.317527</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.634000</v>
+        <v>966.63400000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-75.511900</v>
+        <v>-75.511899999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>40753.793982</v>
+        <v>40753.793982000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.320498</v>
+        <v>11.320498000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.835000</v>
+        <v>971.83500000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.055900</v>
+        <v>-74.055899999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>40764.158880</v>
+        <v>40764.158880000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.323377</v>
+        <v>11.323377000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.530000</v>
+        <v>979.53</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.253700</v>
+        <v>-79.253699999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>40774.496995</v>
+        <v>40774.496995000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.326249</v>
+        <v>11.326249000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.826000</v>
+        <v>987.82600000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.040000</v>
+        <v>-91.04</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>40785.183301</v>
+        <v>40785.183300999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>11.329218</v>
+        <v>11.329217999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.724000</v>
+        <v>997.72400000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.804000</v>
+        <v>-108.804</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>40795.887007</v>
+        <v>40795.887006999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.332191</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.554000</v>
+        <v>-124.554</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>40806.877354</v>
+        <v>40806.877353999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.335244</v>
+        <v>11.335243999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1044.240000</v>
+        <v>1044.24</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.160000</v>
+        <v>-197.16</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>40818.654861</v>
+        <v>40818.654861000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>11.338515</v>
+        <v>11.338514999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.540000</v>
+        <v>1110.54</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.392000</v>
+        <v>-315.392</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>40829.906073</v>
+        <v>40829.906072999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.341641</v>
+        <v>11.341640999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-502.152000</v>
+        <v>-502.15199999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>40840.313629</v>
+        <v>40840.313628999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.344532</v>
+        <v>11.344531999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1340.650000</v>
+        <v>1340.65</v>
       </c>
       <c r="BV7" s="1">
-        <v>-707.705000</v>
+        <v>-707.70500000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>40850.863534</v>
+        <v>40850.863533999996</v>
       </c>
       <c r="BY7" s="1">
         <v>11.347462</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1477.730000</v>
+        <v>1477.73</v>
       </c>
       <c r="CA7" s="1">
-        <v>-926.704000</v>
+        <v>-926.70399999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>40862.181246</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.350606</v>
+        <v>11.350606000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1837.700000</v>
+        <v>1837.7</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1447.570000</v>
+        <v>-1447.57</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>40690.805537</v>
       </c>
       <c r="B8" s="1">
-        <v>11.303002</v>
+        <v>11.303001999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>909.784000</v>
+        <v>909.78399999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-180.109000</v>
+        <v>-180.10900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>40701.461123</v>
+        <v>40701.461123000001</v>
       </c>
       <c r="G8" s="1">
         <v>11.305961</v>
       </c>
       <c r="H8" s="1">
-        <v>924.488000</v>
+        <v>924.48800000000006</v>
       </c>
       <c r="I8" s="1">
-        <v>-153.648000</v>
+        <v>-153.648</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>40711.879061</v>
       </c>
       <c r="L8" s="1">
-        <v>11.308855</v>
+        <v>11.308854999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>944.989000</v>
+        <v>944.98900000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.923000</v>
+        <v>-111.923</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>40722.393751</v>
+        <v>40722.393751000003</v>
       </c>
       <c r="Q8" s="1">
         <v>11.311776</v>
       </c>
       <c r="R8" s="1">
-        <v>951.720000</v>
+        <v>951.72</v>
       </c>
       <c r="S8" s="1">
-        <v>-97.866400</v>
+        <v>-97.866399999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>40733.285408</v>
+        <v>40733.285408000003</v>
       </c>
       <c r="V8" s="1">
         <v>11.314802</v>
       </c>
       <c r="W8" s="1">
-        <v>958.673000</v>
+        <v>958.673</v>
       </c>
       <c r="X8" s="1">
-        <v>-85.135600</v>
+        <v>-85.135599999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>40743.445978</v>
+        <v>40743.445978000003</v>
       </c>
       <c r="AA8" s="1">
         <v>11.317624</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.552000</v>
+        <v>966.55200000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-75.552400</v>
+        <v>-75.552400000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>40754.477470</v>
+        <v>40754.477469999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>11.320688</v>
+        <v>11.320688000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.874000</v>
+        <v>971.87400000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.049300</v>
+        <v>-74.049300000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>40764.856778</v>
+        <v>40764.856778000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.323571</v>
+        <v>11.323570999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.516000</v>
+        <v>979.51599999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.262300</v>
+        <v>-79.262299999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>40774.882883</v>
+        <v>40774.882882999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.326356</v>
+        <v>11.326356000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.829000</v>
+        <v>987.82899999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.033400</v>
+        <v>-91.0334</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>40785.575670</v>
+        <v>40785.575669999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.329327</v>
+        <v>11.329326999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.713000</v>
+        <v>997.71299999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.788000</v>
+        <v>-108.788</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>40796.241109</v>
+        <v>40796.241109000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.332289</v>
+        <v>11.332288999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.594000</v>
+        <v>-124.59399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>40807.237415</v>
+        <v>40807.237415000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>11.335344</v>
+        <v>11.335343999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.143000</v>
+        <v>-197.143</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>40819.342776</v>
+        <v>40819.342775999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>11.338706</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.387000</v>
+        <v>-315.387</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>40830.027297</v>
+        <v>40830.027297000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.341674</v>
+        <v>11.341673999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-502.170000</v>
+        <v>-502.17</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>40840.439611</v>
+        <v>40840.439611000002</v>
       </c>
       <c r="BT8" s="1">
         <v>11.344567</v>
       </c>
       <c r="BU8" s="1">
-        <v>1340.670000</v>
+        <v>1340.67</v>
       </c>
       <c r="BV8" s="1">
-        <v>-707.727000</v>
+        <v>-707.72699999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>40851.284141</v>
+        <v>40851.284140999996</v>
       </c>
       <c r="BY8" s="1">
         <v>11.347579</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1477.790000</v>
+        <v>1477.79</v>
       </c>
       <c r="CA8" s="1">
-        <v>-926.618000</v>
+        <v>-926.61800000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>40862.703038</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.350751</v>
+        <v>11.350751000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1837.450000</v>
+        <v>1837.45</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1449.080000</v>
+        <v>-1449.08</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>40691.082800</v>
+        <v>40691.082799999996</v>
       </c>
       <c r="B9" s="1">
         <v>11.303079</v>
       </c>
       <c r="C9" s="1">
-        <v>909.792000</v>
+        <v>909.79200000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>-180.091000</v>
+        <v>-180.09100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>40701.809284</v>
+        <v>40701.809284000003</v>
       </c>
       <c r="G9" s="1">
         <v>11.306058</v>
       </c>
       <c r="H9" s="1">
-        <v>924.272000</v>
+        <v>924.27200000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-153.415000</v>
+        <v>-153.41499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>40712.224277</v>
+        <v>40712.224277000001</v>
       </c>
       <c r="L9" s="1">
         <v>11.308951</v>
       </c>
       <c r="M9" s="1">
-        <v>944.944000</v>
+        <v>944.94399999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.586000</v>
+        <v>-111.586</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>40722.741974</v>
+        <v>40722.741973999997</v>
       </c>
       <c r="Q9" s="1">
         <v>11.311873</v>
       </c>
       <c r="R9" s="1">
-        <v>951.698000</v>
+        <v>951.69799999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-97.907900</v>
+        <v>-97.907899999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>40733.969221</v>
+        <v>40733.969220999999</v>
       </c>
       <c r="V9" s="1">
-        <v>11.314991</v>
+        <v>11.314990999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>958.648000</v>
+        <v>958.64800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-85.187800</v>
+        <v>-85.187799999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>40744.142827</v>
+        <v>40744.142827000003</v>
       </c>
       <c r="AA9" s="1">
         <v>11.317817</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.648000</v>
+        <v>966.64800000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-75.472100</v>
+        <v>-75.472099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>40754.824204</v>
+        <v>40754.824203999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.320785</v>
+        <v>11.320785000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.826000</v>
+        <v>971.82600000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.038900</v>
+        <v>-74.038899999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>40765.203454</v>
+        <v>40765.203454000002</v>
       </c>
       <c r="AK9" s="1">
         <v>11.323668</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.516000</v>
+        <v>979.51599999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.279900</v>
+        <v>-79.279899999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>40775.241985</v>
+        <v>40775.241985000001</v>
       </c>
       <c r="AP9" s="1">
         <v>11.326456</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.821000</v>
+        <v>987.82100000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.041300</v>
+        <v>-91.041300000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>40785.939701</v>
+        <v>40785.939701000003</v>
       </c>
       <c r="AU9" s="1">
         <v>11.329428</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.700000</v>
+        <v>997.7</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.810000</v>
+        <v>-108.81</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>40796.911728</v>
+        <v>40796.911727999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.332475</v>
+        <v>11.332475000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.583000</v>
+        <v>-124.583</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>40807.908502</v>
+        <v>40807.908501999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.335530</v>
+        <v>11.33553</v>
       </c>
       <c r="BF9" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.172000</v>
+        <v>-197.172</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>40819.453879</v>
+        <v>40819.453879000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.338737</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.379000</v>
+        <v>-315.37900000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>40830.449689</v>
+        <v>40830.449689000001</v>
       </c>
       <c r="BO9" s="1">
         <v>11.341792</v>
       </c>
       <c r="BP9" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-502.155000</v>
+        <v>-502.15499999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>40840.876355</v>
@@ -2490,13 +2906,13 @@
         <v>11.344688</v>
       </c>
       <c r="BU9" s="1">
-        <v>1340.680000</v>
+        <v>1340.68</v>
       </c>
       <c r="BV9" s="1">
-        <v>-707.777000</v>
+        <v>-707.77700000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>40851.710732</v>
@@ -2505,362 +2921,362 @@
         <v>11.347697</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1477.830000</v>
+        <v>1477.83</v>
       </c>
       <c r="CA9" s="1">
-        <v>-926.658000</v>
+        <v>-926.65800000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>40863.219410</v>
+        <v>40863.219409999998</v>
       </c>
       <c r="CD9" s="1">
         <v>11.350894</v>
       </c>
       <c r="CE9" s="1">
-        <v>1837.490000</v>
+        <v>1837.49</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1448.250000</v>
+        <v>-1448.25</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>40691.427552</v>
+        <v>40691.427552000001</v>
       </c>
       <c r="B10" s="1">
         <v>11.303174</v>
       </c>
       <c r="C10" s="1">
-        <v>909.619000</v>
+        <v>909.61900000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-180.173000</v>
+        <v>-180.173</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>40702.153538</v>
+        <v>40702.153537999999</v>
       </c>
       <c r="G10" s="1">
-        <v>11.306154</v>
+        <v>11.306153999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>924.233000</v>
+        <v>924.23299999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-153.611000</v>
+        <v>-153.61099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>40712.569989</v>
+        <v>40712.569989000003</v>
       </c>
       <c r="L10" s="1">
         <v>11.309047</v>
       </c>
       <c r="M10" s="1">
-        <v>944.925000</v>
+        <v>944.92499999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.776000</v>
+        <v>-111.776</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>40723.442296</v>
+        <v>40723.442296000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.312067</v>
+        <v>11.312067000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>951.658000</v>
+        <v>951.65800000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-97.850100</v>
+        <v>-97.850099999999998</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>40734.314631</v>
+        <v>40734.314631000001</v>
       </c>
       <c r="V10" s="1">
         <v>11.315087</v>
       </c>
       <c r="W10" s="1">
-        <v>958.633000</v>
+        <v>958.63300000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-85.135300</v>
+        <v>-85.135300000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>40744.481130</v>
+        <v>40744.48113</v>
       </c>
       <c r="AA10" s="1">
         <v>11.317911</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.511000</v>
+        <v>966.51099999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-75.539700</v>
+        <v>-75.539699999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>40755.168396</v>
+        <v>40755.168396000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.320880</v>
+        <v>11.320880000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.853000</v>
+        <v>971.85299999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.079400</v>
+        <v>-74.079400000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>40765.553632</v>
+        <v>40765.553632000003</v>
       </c>
       <c r="AK10" s="1">
         <v>11.323765</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.529000</v>
+        <v>979.529</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.268500</v>
+        <v>-79.268500000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>40775.914560</v>
+        <v>40775.914559999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.326643</v>
+        <v>11.326643000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.818000</v>
+        <v>987.81799999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.040700</v>
+        <v>-91.040700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>40786.626163</v>
+        <v>40786.626163000001</v>
       </c>
       <c r="AU10" s="1">
         <v>11.329618</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.717000</v>
+        <v>997.71699999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.792000</v>
+        <v>-108.792</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>40797.322388</v>
+        <v>40797.322388000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.332590</v>
+        <v>11.33259</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.544000</v>
+        <v>-124.544</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>40808.467494</v>
+        <v>40808.467493999997</v>
       </c>
       <c r="BE10" s="1">
         <v>11.335685</v>
       </c>
       <c r="BF10" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.150000</v>
+        <v>-197.15</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>40819.811586</v>
+        <v>40819.811586000003</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.338837</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.409000</v>
+        <v>-315.40899999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>40830.846985</v>
+        <v>40830.846984999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.341902</v>
+        <v>11.341901999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-502.150000</v>
+        <v>-502.15</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>40841.303642</v>
+        <v>40841.303641999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>11.344807</v>
+        <v>11.344806999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1340.700000</v>
+        <v>1340.7</v>
       </c>
       <c r="BV10" s="1">
-        <v>-707.774000</v>
+        <v>-707.774</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>40852.133293</v>
+        <v>40852.133292999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.347815</v>
+        <v>11.347815000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1477.770000</v>
+        <v>1477.77</v>
       </c>
       <c r="CA10" s="1">
-        <v>-926.701000</v>
+        <v>-926.70100000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>40863.773407</v>
+        <v>40863.773407000001</v>
       </c>
       <c r="CD10" s="1">
         <v>11.351048</v>
       </c>
       <c r="CE10" s="1">
-        <v>1837.890000</v>
+        <v>1837.89</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1447.760000</v>
+        <v>-1447.76</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>40691.771744</v>
+        <v>40691.771743999998</v>
       </c>
       <c r="B11" s="1">
-        <v>11.303270</v>
+        <v>11.303269999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>909.673000</v>
+        <v>909.673</v>
       </c>
       <c r="D11" s="1">
-        <v>-179.934000</v>
+        <v>-179.934</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>40702.841458</v>
+        <v>40702.841458000003</v>
       </c>
       <c r="G11" s="1">
         <v>11.306345</v>
       </c>
       <c r="H11" s="1">
-        <v>924.363000</v>
+        <v>924.36300000000006</v>
       </c>
       <c r="I11" s="1">
-        <v>-153.534000</v>
+        <v>-153.53399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>40713.262934</v>
+        <v>40713.262933999998</v>
       </c>
       <c r="L11" s="1">
-        <v>11.309240</v>
+        <v>11.309240000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>944.740000</v>
+        <v>944.74</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.806000</v>
+        <v>-111.806</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>40723.787510</v>
+        <v>40723.787510000002</v>
       </c>
       <c r="Q11" s="1">
         <v>11.312163</v>
       </c>
       <c r="R11" s="1">
-        <v>951.702000</v>
+        <v>951.702</v>
       </c>
       <c r="S11" s="1">
-        <v>-97.820100</v>
+        <v>-97.820099999999996</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>40734.659356</v>
+        <v>40734.659355999996</v>
       </c>
       <c r="V11" s="1">
-        <v>11.315183</v>
+        <v>11.315182999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>958.644000</v>
+        <v>958.64400000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-85.192000</v>
+        <v>-85.191999999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>40744.840699</v>
@@ -2869,195 +3285,195 @@
         <v>11.318011</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.693000</v>
+        <v>966.69299999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-75.476600</v>
+        <v>-75.476600000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>40755.825595</v>
+        <v>40755.825595000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.321063</v>
+        <v>11.321063000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.814000</v>
+        <v>971.81399999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.003200</v>
+        <v>-74.003200000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>40766.210365</v>
+        <v>40766.210364999999</v>
       </c>
       <c r="AK11" s="1">
         <v>11.323947</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.555000</v>
+        <v>979.55499999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.265700</v>
+        <v>-79.265699999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>40776.361488</v>
+        <v>40776.361488000002</v>
       </c>
       <c r="AP11" s="1">
         <v>11.326767</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.835000</v>
+        <v>987.83500000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.027700</v>
+        <v>-91.027699999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>40787.056226</v>
+        <v>40787.056226000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.329738</v>
+        <v>11.329738000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.713000</v>
+        <v>997.71299999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.810000</v>
+        <v>-108.81</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>40797.710292</v>
+        <v>40797.710292000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.332697</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.570000</v>
+        <v>-124.57</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>40808.722933</v>
+        <v>40808.722932999997</v>
       </c>
       <c r="BE11" s="1">
         <v>11.335756</v>
       </c>
       <c r="BF11" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.140000</v>
+        <v>-197.14</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>40820.187959</v>
+        <v>40820.187959000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.338941</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.401000</v>
+        <v>-315.40100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>40831.265639</v>
+        <v>40831.265638999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>11.342018</v>
+        <v>11.342017999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-502.137000</v>
+        <v>-502.137</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>40841.720316</v>
+        <v>40841.720315999999</v>
       </c>
       <c r="BT11" s="1">
         <v>11.344922</v>
       </c>
       <c r="BU11" s="1">
-        <v>1340.640000</v>
+        <v>1340.64</v>
       </c>
       <c r="BV11" s="1">
-        <v>-707.767000</v>
+        <v>-707.76700000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>40852.572252</v>
+        <v>40852.572251999998</v>
       </c>
       <c r="BY11" s="1">
         <v>11.347937</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1477.950000</v>
+        <v>1477.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-926.677000</v>
+        <v>-926.67700000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>40864.305116</v>
+        <v>40864.305116000003</v>
       </c>
       <c r="CD11" s="1">
         <v>11.351196</v>
       </c>
       <c r="CE11" s="1">
-        <v>1837.380000</v>
+        <v>1837.38</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1448.710000</v>
+        <v>-1448.71</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>40692.453279</v>
+        <v>40692.453279000001</v>
       </c>
       <c r="B12" s="1">
         <v>11.303459</v>
       </c>
       <c r="C12" s="1">
-        <v>909.668000</v>
+        <v>909.66800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-180.231000</v>
+        <v>-180.23099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>40703.186209</v>
@@ -3066,360 +3482,360 @@
         <v>11.306441</v>
       </c>
       <c r="H12" s="1">
-        <v>924.079000</v>
+        <v>924.07899999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-153.654000</v>
+        <v>-153.654</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>40713.614563</v>
+        <v>40713.614563000003</v>
       </c>
       <c r="L12" s="1">
-        <v>11.309337</v>
+        <v>11.309336999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>944.993000</v>
+        <v>944.99300000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.677000</v>
+        <v>-111.67700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>40724.137685</v>
+        <v>40724.137685000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>11.312260</v>
+        <v>11.31226</v>
       </c>
       <c r="R12" s="1">
-        <v>951.733000</v>
+        <v>951.73299999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-97.841800</v>
+        <v>-97.841800000000006</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>40735.306104</v>
+        <v>40735.306104000003</v>
       </c>
       <c r="V12" s="1">
         <v>11.315363</v>
       </c>
       <c r="W12" s="1">
-        <v>958.666000</v>
+        <v>958.66600000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-85.218300</v>
+        <v>-85.218299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>40745.498394</v>
+        <v>40745.498394000002</v>
       </c>
       <c r="AA12" s="1">
         <v>11.318194</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.550000</v>
+        <v>966.55</v>
       </c>
       <c r="AC12" s="1">
-        <v>-75.456600</v>
+        <v>-75.456599999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>40756.195146</v>
+        <v>40756.195145999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.321165</v>
+        <v>11.321165000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.857000</v>
+        <v>971.85699999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.036700</v>
+        <v>-74.036699999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>40766.597213</v>
+        <v>40766.597213000001</v>
       </c>
       <c r="AK12" s="1">
         <v>11.324055</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.542000</v>
+        <v>979.54200000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.275700</v>
+        <v>-79.275700000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>40776.720065</v>
+        <v>40776.720065000001</v>
       </c>
       <c r="AP12" s="1">
         <v>11.326867</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.816000</v>
+        <v>987.81600000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.041500</v>
+        <v>-91.041499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>40787.422274</v>
+        <v>40787.422273999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.329840</v>
+        <v>11.329840000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.711000</v>
+        <v>997.71100000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.801000</v>
+        <v>-108.801</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>40798.069394</v>
+        <v>40798.069393999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.332797</v>
+        <v>11.332796999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.572000</v>
+        <v>-124.572</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>40809.422331</v>
+        <v>40809.422331000002</v>
       </c>
       <c r="BE12" s="1">
         <v>11.335951</v>
       </c>
       <c r="BF12" s="1">
-        <v>1044.240000</v>
+        <v>1044.24</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.166000</v>
+        <v>-197.166</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>40820.609063</v>
+        <v>40820.609063000004</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.339058</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.384000</v>
+        <v>-315.38400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>40831.661415</v>
+        <v>40831.661415000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.342128</v>
+        <v>11.342128000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-502.172000</v>
+        <v>-502.17200000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>40842.146842</v>
+        <v>40842.146842000002</v>
       </c>
       <c r="BT12" s="1">
         <v>11.345041</v>
       </c>
       <c r="BU12" s="1">
-        <v>1340.630000</v>
+        <v>1340.63</v>
       </c>
       <c r="BV12" s="1">
-        <v>-707.775000</v>
+        <v>-707.77499999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>40852.996362</v>
+        <v>40852.996361999998</v>
       </c>
       <c r="BY12" s="1">
         <v>11.348055</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1477.890000</v>
+        <v>1477.89</v>
       </c>
       <c r="CA12" s="1">
-        <v>-926.636000</v>
+        <v>-926.63599999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>40864.824449</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.351340</v>
+        <v>11.35134</v>
       </c>
       <c r="CE12" s="1">
-        <v>1838.660000</v>
+        <v>1838.66</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1449.230000</v>
+        <v>-1449.23</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>40692.797471</v>
+        <v>40692.797470999998</v>
       </c>
       <c r="B13" s="1">
-        <v>11.303555</v>
+        <v>11.303554999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>909.823000</v>
+        <v>909.82299999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-180.017000</v>
+        <v>-180.017</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>40703.529904</v>
+        <v>40703.529904000003</v>
       </c>
       <c r="G13" s="1">
-        <v>11.306536</v>
+        <v>11.306535999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>924.161000</v>
+        <v>924.16099999999994</v>
       </c>
       <c r="I13" s="1">
-        <v>-153.370000</v>
+        <v>-153.37</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>40714.265810</v>
+        <v>40714.265809999997</v>
       </c>
       <c r="L13" s="1">
-        <v>11.309518</v>
+        <v>11.309518000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>945.214000</v>
+        <v>945.21400000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.568000</v>
+        <v>-111.568</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>40724.805300</v>
+        <v>40724.8053</v>
       </c>
       <c r="Q13" s="1">
         <v>11.312446</v>
       </c>
       <c r="R13" s="1">
-        <v>951.729000</v>
+        <v>951.72900000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-97.931800</v>
+        <v>-97.931799999999996</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>40735.688056</v>
+        <v>40735.688055999999</v>
       </c>
       <c r="V13" s="1">
         <v>11.315469</v>
       </c>
       <c r="W13" s="1">
-        <v>958.623000</v>
+        <v>958.62300000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-85.182900</v>
+        <v>-85.182900000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>40745.883320</v>
+        <v>40745.883320000001</v>
       </c>
       <c r="AA13" s="1">
         <v>11.318301</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.695000</v>
+        <v>966.69500000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-75.544500</v>
+        <v>-75.544499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>40756.539865</v>
+        <v>40756.539864999999</v>
       </c>
       <c r="AF13" s="1">
         <v>11.321261</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.768000</v>
+        <v>971.76800000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.033600</v>
+        <v>-74.033600000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>40766.944942</v>
+        <v>40766.944942000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.324151</v>
+        <v>11.324151000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.553000</v>
+        <v>979.553</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.256900</v>
+        <v>-79.256900000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>40777.080189</v>
@@ -3428,103 +3844,103 @@
         <v>11.326967</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.815000</v>
+        <v>987.81500000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.016900</v>
+        <v>-91.016900000000007</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>40787.787297</v>
+        <v>40787.787297000003</v>
       </c>
       <c r="AU13" s="1">
         <v>11.329941</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.700000</v>
+        <v>997.7</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.802000</v>
+        <v>-108.80200000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>40798.488019</v>
+        <v>40798.488018999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.332913</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.559000</v>
+        <v>-124.559</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>40809.836483</v>
+        <v>40809.836482999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.336066</v>
+        <v>11.336066000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.142000</v>
+        <v>-197.142</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>40820.946869</v>
+        <v>40820.946868999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.339152</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.377000</v>
+        <v>-315.37700000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>40832.082056</v>
+        <v>40832.082055999999</v>
       </c>
       <c r="BO13" s="1">
         <v>11.342245</v>
       </c>
       <c r="BP13" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-502.163000</v>
+        <v>-502.16300000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>40842.573400</v>
+        <v>40842.573400000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.345159</v>
+        <v>11.345159000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1340.590000</v>
+        <v>1340.59</v>
       </c>
       <c r="BV13" s="1">
-        <v>-707.784000</v>
+        <v>-707.78399999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>40853.420907</v>
@@ -3533,135 +3949,135 @@
         <v>11.348172</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1477.870000</v>
+        <v>1477.87</v>
       </c>
       <c r="CA13" s="1">
-        <v>-926.604000</v>
+        <v>-926.60400000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>40865.336826</v>
+        <v>40865.336825999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.351482</v>
+        <v>11.351482000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1838.940000</v>
+        <v>1838.94</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1448.130000</v>
+        <v>-1448.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>40693.133758</v>
+        <v>40693.133758000004</v>
       </c>
       <c r="B14" s="1">
-        <v>11.303648</v>
+        <v>11.303648000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>909.562000</v>
+        <v>909.56200000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-179.978000</v>
+        <v>-179.97800000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>40704.186143</v>
+        <v>40704.186142999999</v>
       </c>
       <c r="G14" s="1">
         <v>11.306718</v>
       </c>
       <c r="H14" s="1">
-        <v>924.260000</v>
+        <v>924.26</v>
       </c>
       <c r="I14" s="1">
-        <v>-153.286000</v>
+        <v>-153.286</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>40714.646739</v>
+        <v>40714.646739000003</v>
       </c>
       <c r="L14" s="1">
-        <v>11.309624</v>
+        <v>11.309623999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>944.947000</v>
+        <v>944.947</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.507000</v>
+        <v>-111.50700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>40725.185236</v>
+        <v>40725.185235999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.312551</v>
+        <v>11.312550999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>951.704000</v>
+        <v>951.70399999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-97.895700</v>
+        <v>-97.895700000000005</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>40736.031749</v>
+        <v>40736.031749000002</v>
       </c>
       <c r="V14" s="1">
         <v>11.315564</v>
       </c>
       <c r="W14" s="1">
-        <v>958.658000</v>
+        <v>958.65800000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-85.125800</v>
+        <v>-85.125799999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>40746.234962</v>
+        <v>40746.234962000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>11.318399</v>
+        <v>11.318398999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.604000</v>
+        <v>966.60400000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-75.542000</v>
+        <v>-75.542000000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>40756.883562</v>
+        <v>40756.883562000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.321357</v>
+        <v>11.321357000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.822000</v>
+        <v>971.822</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.068800</v>
+        <v>-74.068799999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>40767.296574</v>
@@ -3670,58 +4086,58 @@
         <v>11.324249</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.526000</v>
+        <v>979.52599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.244700</v>
+        <v>-79.244699999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>40777.491840</v>
+        <v>40777.491840000002</v>
       </c>
       <c r="AP14" s="1">
         <v>11.327081</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.831000</v>
+        <v>987.83100000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.031600</v>
+        <v>-91.031599999999997</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>40788.201457</v>
+        <v>40788.201457000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.330056</v>
+        <v>11.330056000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.717000</v>
+        <v>997.71699999999998</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.789000</v>
+        <v>-108.789</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>40798.786082</v>
+        <v>40798.786081999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.332996</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.578000</v>
+        <v>-124.578</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>40810.225843</v>
@@ -3730,330 +4146,330 @@
         <v>11.336174</v>
       </c>
       <c r="BF14" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.137000</v>
+        <v>-197.137</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>40821.334710</v>
+        <v>40821.334710000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.339260</v>
+        <v>11.339259999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.408000</v>
+        <v>-315.40800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>40832.480838</v>
+        <v>40832.480838000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.342356</v>
+        <v>11.342356000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-502.168000</v>
+        <v>-502.16800000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>40842.986569</v>
+        <v>40842.986569000001</v>
       </c>
       <c r="BT14" s="1">
         <v>11.345274</v>
       </c>
       <c r="BU14" s="1">
-        <v>1340.650000</v>
+        <v>1340.65</v>
       </c>
       <c r="BV14" s="1">
-        <v>-707.796000</v>
+        <v>-707.79600000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>40853.867833</v>
+        <v>40853.867832999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.348297</v>
+        <v>11.348297000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1477.780000</v>
+        <v>1477.78</v>
       </c>
       <c r="CA14" s="1">
-        <v>-926.612000</v>
+        <v>-926.61199999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>40865.857594</v>
+        <v>40865.857594000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.351627</v>
+        <v>11.351627000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1837.170000</v>
+        <v>1837.17</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1448.710000</v>
+        <v>-1448.71</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>40694.096529</v>
+        <v>40694.096529000002</v>
       </c>
       <c r="B15" s="1">
-        <v>11.303916</v>
+        <v>11.303915999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>909.798000</v>
+        <v>909.798</v>
       </c>
       <c r="D15" s="1">
-        <v>-180.099000</v>
+        <v>-180.09899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>40704.565084</v>
+        <v>40704.565084000002</v>
       </c>
       <c r="G15" s="1">
-        <v>11.306824</v>
+        <v>11.306824000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>924.156000</v>
+        <v>924.15599999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-153.119000</v>
+        <v>-153.119</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>40714.991458</v>
+        <v>40714.991457999997</v>
       </c>
       <c r="L15" s="1">
-        <v>11.309720</v>
+        <v>11.30972</v>
       </c>
       <c r="M15" s="1">
-        <v>945.058000</v>
+        <v>945.05799999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.548000</v>
+        <v>-111.548</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>40725.534916</v>
+        <v>40725.534915999997</v>
       </c>
       <c r="Q15" s="1">
         <v>11.312649</v>
       </c>
       <c r="R15" s="1">
-        <v>951.723000</v>
+        <v>951.72299999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-97.857300</v>
+        <v>-97.857299999999995</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>40736.375017</v>
+        <v>40736.375016999998</v>
       </c>
       <c r="V15" s="1">
-        <v>11.315660</v>
+        <v>11.315659999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>958.619000</v>
+        <v>958.61900000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-85.195000</v>
+        <v>-85.194999999999993</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>40746.583639</v>
+        <v>40746.583638999997</v>
       </c>
       <c r="AA15" s="1">
         <v>11.318495</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.557000</v>
+        <v>966.55700000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-75.456200</v>
+        <v>-75.456199999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>40757.297226</v>
+        <v>40757.297226000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.321471</v>
+        <v>11.321471000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.808000</v>
+        <v>971.80799999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.031800</v>
+        <v>-74.031800000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>40767.725612</v>
+        <v>40767.725612000002</v>
       </c>
       <c r="AK15" s="1">
         <v>11.324368</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.532000</v>
+        <v>979.53200000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.279200</v>
+        <v>-79.279200000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>40777.801342</v>
+        <v>40777.801341999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.327167</v>
+        <v>11.327166999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.819000</v>
+        <v>987.81899999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.032100</v>
+        <v>-91.0321</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>40788.537781</v>
+        <v>40788.537780999999</v>
       </c>
       <c r="AU15" s="1">
         <v>11.330149</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.691000</v>
+        <v>997.69100000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.817000</v>
+        <v>-108.81699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>40799.144194</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.333096</v>
+        <v>11.333095999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.572000</v>
+        <v>-124.572</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>40810.587891</v>
+        <v>40810.587891000003</v>
       </c>
       <c r="BE15" s="1">
         <v>11.336274</v>
       </c>
       <c r="BF15" s="1">
-        <v>1044.220000</v>
+        <v>1044.22</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.113000</v>
+        <v>-197.113</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>40821.711174</v>
+        <v>40821.711173999996</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.339364</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.590000</v>
+        <v>1110.5899999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.395000</v>
+        <v>-315.39499999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>40832.899962</v>
+        <v>40832.899962000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.342472</v>
+        <v>11.342472000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-502.163000</v>
+        <v>-502.16300000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>40843.415112</v>
+        <v>40843.415112000002</v>
       </c>
       <c r="BT15" s="1">
         <v>11.345393</v>
       </c>
       <c r="BU15" s="1">
-        <v>1340.620000</v>
+        <v>1340.62</v>
       </c>
       <c r="BV15" s="1">
-        <v>-707.759000</v>
+        <v>-707.75900000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>40854.289898</v>
+        <v>40854.289898000003</v>
       </c>
       <c r="BY15" s="1">
         <v>11.348414</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1477.710000</v>
+        <v>1477.71</v>
       </c>
       <c r="CA15" s="1">
-        <v>-926.732000</v>
+        <v>-926.73199999999997</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>40866.395783</v>
@@ -4062,273 +4478,273 @@
         <v>11.351777</v>
       </c>
       <c r="CE15" s="1">
-        <v>1839.130000</v>
+        <v>1839.13</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1448.800000</v>
+        <v>-1448.8</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>40694.503708</v>
+        <v>40694.503707999997</v>
       </c>
       <c r="B16" s="1">
         <v>11.304029</v>
       </c>
       <c r="C16" s="1">
-        <v>909.864000</v>
+        <v>909.86400000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-180.016000</v>
+        <v>-180.01599999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>40704.909806</v>
+        <v>40704.909806000003</v>
       </c>
       <c r="G16" s="1">
-        <v>11.306919</v>
+        <v>11.306919000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>924.239000</v>
+        <v>924.23900000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-153.248000</v>
+        <v>-153.24799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>40715.340673</v>
+        <v>40715.340672999999</v>
       </c>
       <c r="L16" s="1">
-        <v>11.309817</v>
+        <v>11.309817000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>944.968000</v>
+        <v>944.96799999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.755000</v>
+        <v>-111.755</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>40725.882611</v>
+        <v>40725.882611000001</v>
       </c>
       <c r="Q16" s="1">
         <v>11.312745</v>
       </c>
       <c r="R16" s="1">
-        <v>951.691000</v>
+        <v>951.69100000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-97.877000</v>
+        <v>-97.876999999999995</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>40736.796084</v>
+        <v>40736.796084000001</v>
       </c>
       <c r="V16" s="1">
-        <v>11.315777</v>
+        <v>11.315777000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>958.643000</v>
+        <v>958.64300000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-85.113400</v>
+        <v>-85.113399999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>40746.993371</v>
+        <v>40746.993370999997</v>
       </c>
       <c r="AA16" s="1">
         <v>11.318609</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.627000</v>
+        <v>966.62699999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-75.535300</v>
+        <v>-75.535300000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>40757.593832</v>
+        <v>40757.593831999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.321554</v>
+        <v>11.321554000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.801000</v>
+        <v>971.80100000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.067300</v>
+        <v>-74.067300000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>40768.004859</v>
+        <v>40768.004859000001</v>
       </c>
       <c r="AK16" s="1">
         <v>11.324446</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.511000</v>
+        <v>979.51099999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.257900</v>
+        <v>-79.257900000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>40778.158494</v>
+        <v>40778.158494000003</v>
       </c>
       <c r="AP16" s="1">
         <v>11.327266</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.815000</v>
+        <v>987.81500000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.012900</v>
+        <v>-91.012900000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>40788.882959</v>
+        <v>40788.882959000002</v>
       </c>
       <c r="AU16" s="1">
         <v>11.330245</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.700000</v>
+        <v>997.7</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.796000</v>
+        <v>-108.79600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>40799.504294</v>
+        <v>40799.504293999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.333196</v>
+        <v>11.333195999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.558000</v>
+        <v>-124.55800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>40811.309571</v>
+        <v>40811.309570999998</v>
       </c>
       <c r="BE16" s="1">
         <v>11.336475</v>
       </c>
       <c r="BF16" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.137000</v>
+        <v>-197.137</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>40822.461337</v>
+        <v>40822.461337000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.339573</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.371000</v>
+        <v>-315.37099999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>40833.299701</v>
+        <v>40833.299701000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.342583</v>
+        <v>11.342582999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-502.173000</v>
+        <v>-502.173</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>40843.845639</v>
+        <v>40843.845638999999</v>
       </c>
       <c r="BT16" s="1">
         <v>11.345513</v>
       </c>
       <c r="BU16" s="1">
-        <v>1340.680000</v>
+        <v>1340.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-707.757000</v>
+        <v>-707.75699999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>40854.720922</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.348534</v>
+        <v>11.348534000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1477.890000</v>
+        <v>1477.89</v>
       </c>
       <c r="CA16" s="1">
-        <v>-926.768000</v>
+        <v>-926.76800000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>40867.102056</v>
+        <v>40867.102056000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.351973</v>
+        <v>11.351972999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1837.670000</v>
+        <v>1837.67</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1449.220000</v>
+        <v>-1449.22</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>40694.845984</v>
       </c>
@@ -4336,375 +4752,375 @@
         <v>11.304124</v>
       </c>
       <c r="C17" s="1">
-        <v>909.810000</v>
+        <v>909.81</v>
       </c>
       <c r="D17" s="1">
-        <v>-180.027000</v>
+        <v>-180.02699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>40705.255142</v>
+        <v>40705.255142000002</v>
       </c>
       <c r="G17" s="1">
         <v>11.307015</v>
       </c>
       <c r="H17" s="1">
-        <v>924.569000</v>
+        <v>924.56899999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-153.485000</v>
+        <v>-153.48500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>40715.758769</v>
       </c>
       <c r="L17" s="1">
-        <v>11.309933</v>
+        <v>11.309932999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>944.921000</v>
+        <v>944.92100000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.640000</v>
+        <v>-111.64</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>40726.299284</v>
+        <v>40726.299284000001</v>
       </c>
       <c r="Q17" s="1">
         <v>11.312861</v>
       </c>
       <c r="R17" s="1">
-        <v>951.677000</v>
+        <v>951.67700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-97.867200</v>
+        <v>-97.867199999999997</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>40737.087765</v>
+        <v>40737.087764999997</v>
       </c>
       <c r="V17" s="1">
         <v>11.315858</v>
       </c>
       <c r="W17" s="1">
-        <v>958.612000</v>
+        <v>958.61199999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-85.147400</v>
+        <v>-85.147400000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>40747.289448</v>
+        <v>40747.289448000003</v>
       </c>
       <c r="AA17" s="1">
         <v>11.318692</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.502000</v>
+        <v>966.50199999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-75.434900</v>
+        <v>-75.434899999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>40757.940042</v>
+        <v>40757.940042000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.321650</v>
+        <v>11.32165</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.957000</v>
+        <v>971.95699999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.139600</v>
+        <v>-74.139600000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>40768.351068</v>
+        <v>40768.351068000004</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.324542</v>
+        <v>11.324541999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.515000</v>
+        <v>979.51499999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.261900</v>
+        <v>-79.261899999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>40778.520576</v>
+        <v>40778.520576000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>11.327367</v>
+        <v>11.327367000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.817000</v>
+        <v>987.81700000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.046900</v>
+        <v>-91.046899999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>40789.497044</v>
+        <v>40789.497044000003</v>
       </c>
       <c r="AU17" s="1">
         <v>11.330416</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.721000</v>
+        <v>997.721</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.796000</v>
+        <v>-108.79600000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>40800.224978</v>
+        <v>40800.224977999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.333396</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.569000</v>
+        <v>-124.569</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>40811.669697</v>
+        <v>40811.669696999998</v>
       </c>
       <c r="BE17" s="1">
         <v>11.336575</v>
       </c>
       <c r="BF17" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.131000</v>
+        <v>-197.131</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>40822.838580</v>
+        <v>40822.838580000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.339677</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.391000</v>
+        <v>-315.39100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>40833.716867</v>
+        <v>40833.716867000003</v>
       </c>
       <c r="BO17" s="1">
         <v>11.342699</v>
       </c>
       <c r="BP17" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-502.166000</v>
+        <v>-502.166</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>40844.256822</v>
+        <v>40844.256822000003</v>
       </c>
       <c r="BT17" s="1">
         <v>11.345627</v>
       </c>
       <c r="BU17" s="1">
-        <v>1340.670000</v>
+        <v>1340.67</v>
       </c>
       <c r="BV17" s="1">
-        <v>-707.695000</v>
+        <v>-707.69500000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>40855.454504</v>
+        <v>40855.454504000001</v>
       </c>
       <c r="BY17" s="1">
         <v>11.348737</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1477.830000</v>
+        <v>1477.83</v>
       </c>
       <c r="CA17" s="1">
-        <v>-926.587000</v>
+        <v>-926.58699999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>40867.516712</v>
+        <v>40867.516711999997</v>
       </c>
       <c r="CD17" s="1">
         <v>11.352088</v>
       </c>
       <c r="CE17" s="1">
-        <v>1838.040000</v>
+        <v>1838.04</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1449.270000</v>
+        <v>-1449.27</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>40695.274492</v>
+        <v>40695.274491999997</v>
       </c>
       <c r="B18" s="1">
         <v>11.304243</v>
       </c>
       <c r="C18" s="1">
-        <v>909.636000</v>
+        <v>909.63599999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-180.110000</v>
+        <v>-180.11</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>40705.672654</v>
+        <v>40705.672654000002</v>
       </c>
       <c r="G18" s="1">
         <v>11.307131</v>
       </c>
       <c r="H18" s="1">
-        <v>924.228000</v>
+        <v>924.22799999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-152.885000</v>
+        <v>-152.88499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>40716.054193</v>
+        <v>40716.054193000004</v>
       </c>
       <c r="L18" s="1">
         <v>11.310015</v>
       </c>
       <c r="M18" s="1">
-        <v>945.030000</v>
+        <v>945.03</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.936000</v>
+        <v>-111.93600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>40726.586610</v>
+        <v>40726.586609999998</v>
       </c>
       <c r="Q18" s="1">
         <v>11.312941</v>
       </c>
       <c r="R18" s="1">
-        <v>951.729000</v>
+        <v>951.72900000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-97.860000</v>
+        <v>-97.86</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>40737.432453</v>
+        <v>40737.432453000001</v>
       </c>
       <c r="V18" s="1">
         <v>11.315953</v>
       </c>
       <c r="W18" s="1">
-        <v>958.650000</v>
+        <v>958.65</v>
       </c>
       <c r="X18" s="1">
-        <v>-85.141400</v>
+        <v>-85.141400000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>40747.641641</v>
+        <v>40747.641641000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>11.318789</v>
+        <v>11.318789000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.549000</v>
+        <v>966.54899999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-75.482300</v>
+        <v>-75.482299999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>40758.498535</v>
+        <v>40758.498534999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.321805</v>
+        <v>11.321804999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.818000</v>
+        <v>971.81799999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.018600</v>
+        <v>-74.018600000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>40768.701243</v>
+        <v>40768.701243000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.324639</v>
+        <v>11.324638999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.515000</v>
+        <v>979.51499999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.279100</v>
+        <v>-79.2791</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>40779.241724</v>
@@ -4713,180 +5129,180 @@
         <v>11.327567</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.837000</v>
+        <v>987.83699999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.034300</v>
+        <v>-91.034300000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>40789.613566</v>
       </c>
       <c r="AU18" s="1">
-        <v>11.330448</v>
+        <v>11.330448000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.707000</v>
+        <v>997.70699999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.803000</v>
+        <v>-108.803</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>40800.600944</v>
+        <v>40800.600943999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.333500</v>
+        <v>11.333500000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.572000</v>
+        <v>-124.572</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>40812.034225</v>
+        <v>40812.034225000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.336676</v>
+        <v>11.336676000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.137000</v>
+        <v>-197.137</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>40823.210083</v>
+        <v>40823.210082999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>11.339781</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.540000</v>
+        <v>1110.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.427000</v>
+        <v>-315.42700000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>40834.417694</v>
+        <v>40834.417694000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.342894</v>
+        <v>11.342893999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-502.147000</v>
+        <v>-502.14699999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>40844.992390</v>
+        <v>40844.992389999999</v>
       </c>
       <c r="BT18" s="1">
         <v>11.345831</v>
       </c>
       <c r="BU18" s="1">
-        <v>1340.680000</v>
+        <v>1340.68</v>
       </c>
       <c r="BV18" s="1">
-        <v>-707.708000</v>
+        <v>-707.70799999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>40855.569576</v>
+        <v>40855.569576000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.348769</v>
+        <v>11.348769000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1477.850000</v>
+        <v>1477.85</v>
       </c>
       <c r="CA18" s="1">
-        <v>-926.686000</v>
+        <v>-926.68600000000004</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>40867.991383</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.352220</v>
+        <v>11.352220000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1839.220000</v>
+        <v>1839.22</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1448.630000</v>
+        <v>-1448.63</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>40695.540379</v>
+        <v>40695.540378999998</v>
       </c>
       <c r="B19" s="1">
-        <v>11.304317</v>
+        <v>11.304316999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>909.701000</v>
+        <v>909.70100000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-180.088000</v>
+        <v>-180.08799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>40705.952366</v>
+        <v>40705.952365999998</v>
       </c>
       <c r="G19" s="1">
         <v>11.307209</v>
       </c>
       <c r="H19" s="1">
-        <v>924.202000</v>
+        <v>924.202</v>
       </c>
       <c r="I19" s="1">
-        <v>-153.746000</v>
+        <v>-153.74600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>40716.399599</v>
+        <v>40716.399598999997</v>
       </c>
       <c r="L19" s="1">
-        <v>11.310111</v>
+        <v>11.310110999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>945.042000</v>
+        <v>945.04200000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.604000</v>
+        <v>-111.604</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>40726.939089</v>
@@ -4895,300 +5311,300 @@
         <v>11.313039</v>
       </c>
       <c r="R19" s="1">
-        <v>951.739000</v>
+        <v>951.73900000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-97.875100</v>
+        <v>-97.875100000000003</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>40737.777668</v>
+        <v>40737.777668000002</v>
       </c>
       <c r="V19" s="1">
         <v>11.316049</v>
       </c>
       <c r="W19" s="1">
-        <v>958.607000</v>
+        <v>958.60699999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-85.154900</v>
+        <v>-85.154899999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>40747.989301</v>
+        <v>40747.989301000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.318886</v>
+        <v>11.318885999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.575000</v>
+        <v>966.57500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-75.554000</v>
+        <v>-75.554000000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>40759.193928</v>
+        <v>40759.193928000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>11.321998</v>
+        <v>11.321998000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.825000</v>
+        <v>971.82500000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.016500</v>
+        <v>-74.016499999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>40769.397625</v>
+        <v>40769.397624999998</v>
       </c>
       <c r="AK19" s="1">
         <v>11.324833</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.517000</v>
+        <v>979.51700000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.251200</v>
+        <v>-79.251199999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>40779.600363</v>
+        <v>40779.600362999998</v>
       </c>
       <c r="AP19" s="1">
         <v>11.327667</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.808000</v>
+        <v>987.80799999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.032500</v>
+        <v>-91.032499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>40789.975190</v>
+        <v>40789.975189999997</v>
       </c>
       <c r="AU19" s="1">
         <v>11.330549</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.708000</v>
+        <v>997.70799999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.802000</v>
+        <v>-108.80200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>40800.969967</v>
+        <v>40800.969966999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.333603</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.566000</v>
+        <v>-124.566</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>40812.709317</v>
+        <v>40812.709317000001</v>
       </c>
       <c r="BE19" s="1">
         <v>11.336864</v>
       </c>
       <c r="BF19" s="1">
-        <v>1044.360000</v>
+        <v>1044.3599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.205000</v>
+        <v>-197.20500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>40823.895553</v>
+        <v>40823.895553000002</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.339971</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.540000</v>
+        <v>1110.54</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.368000</v>
+        <v>-315.36799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>40834.535271</v>
+        <v>40834.535271000001</v>
       </c>
       <c r="BO19" s="1">
         <v>11.342926</v>
       </c>
       <c r="BP19" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-502.164000</v>
+        <v>-502.16399999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>40845.112917</v>
+        <v>40845.112916999999</v>
       </c>
       <c r="BT19" s="1">
         <v>11.345865</v>
       </c>
       <c r="BU19" s="1">
-        <v>1340.630000</v>
+        <v>1340.63</v>
       </c>
       <c r="BV19" s="1">
-        <v>-707.774000</v>
+        <v>-707.774</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>40856.016967</v>
+        <v>40856.016967000003</v>
       </c>
       <c r="BY19" s="1">
         <v>11.348894</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1477.830000</v>
+        <v>1477.83</v>
       </c>
       <c r="CA19" s="1">
-        <v>-926.702000</v>
+        <v>-926.702</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>40868.513671</v>
+        <v>40868.513671000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>11.352365</v>
+        <v>11.352365000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1837.360000</v>
+        <v>1837.36</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1447.840000</v>
+        <v>-1447.84</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>40695.882586</v>
       </c>
       <c r="B20" s="1">
-        <v>11.304412</v>
+        <v>11.304411999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>909.684000</v>
+        <v>909.68399999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-180.154000</v>
+        <v>-180.154</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>40706.297117</v>
+        <v>40706.297117000002</v>
       </c>
       <c r="G20" s="1">
-        <v>11.307305</v>
+        <v>11.307304999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>924.284000</v>
+        <v>924.28399999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-153.428000</v>
+        <v>-153.428</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>40716.743359</v>
       </c>
       <c r="L20" s="1">
-        <v>11.310206</v>
+        <v>11.310206000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>944.801000</v>
+        <v>944.80100000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.836000</v>
+        <v>-111.836</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>40727.286489</v>
+        <v>40727.286488999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.313135</v>
+        <v>11.313135000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>951.688000</v>
+        <v>951.68799999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-97.876800</v>
+        <v>-97.876800000000003</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>40738.462146</v>
+        <v>40738.462145999998</v>
       </c>
       <c r="V20" s="1">
-        <v>11.316239</v>
+        <v>11.316238999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>958.657000</v>
+        <v>958.65700000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-85.132400</v>
+        <v>-85.132400000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>40748.686180</v>
+        <v>40748.686179999997</v>
       </c>
       <c r="AA20" s="1">
         <v>11.319079</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.616000</v>
+        <v>966.61599999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-75.564500</v>
+        <v>-75.564499999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>40759.537159</v>
@@ -5197,148 +5613,148 @@
         <v>11.322094</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.833000</v>
+        <v>971.83299999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.026300</v>
+        <v>-74.026300000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>40769.782688</v>
+        <v>40769.782687999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.324940</v>
+        <v>11.32494</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.519000</v>
+        <v>979.51900000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.270500</v>
+        <v>-79.270499999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>40779.960428</v>
+        <v>40779.960427999999</v>
       </c>
       <c r="AP20" s="1">
         <v>11.327767</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.837000</v>
+        <v>987.83699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.052400</v>
+        <v>-91.052400000000006</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>40790.660621</v>
+        <v>40790.660621000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>11.330739</v>
+        <v>11.330738999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.713000</v>
+        <v>997.71299999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.815000</v>
+        <v>-108.815</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>40801.645022</v>
+        <v>40801.645021999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.333790</v>
+        <v>11.33379</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.562000</v>
+        <v>-124.562</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>40813.366975</v>
+        <v>40813.366974999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.337046</v>
+        <v>11.337046000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1044.240000</v>
+        <v>1044.24</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.162000</v>
+        <v>-197.16200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>40824.001728</v>
+        <v>40824.001728000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.340000</v>
+        <v>11.34</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.540000</v>
+        <v>1110.54</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.422000</v>
+        <v>-315.42200000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>40834.961329</v>
+        <v>40834.961328999998</v>
       </c>
       <c r="BO20" s="1">
         <v>11.343045</v>
       </c>
       <c r="BP20" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-502.169000</v>
+        <v>-502.16899999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>40845.522614</v>
+        <v>40845.522614000001</v>
       </c>
       <c r="BT20" s="1">
         <v>11.345979</v>
       </c>
       <c r="BU20" s="1">
-        <v>1340.600000</v>
+        <v>1340.6</v>
       </c>
       <c r="BV20" s="1">
-        <v>-707.734000</v>
+        <v>-707.73400000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>40856.448486</v>
+        <v>40856.448486000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.349013</v>
+        <v>11.349012999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1477.820000</v>
+        <v>1477.82</v>
       </c>
       <c r="CA20" s="1">
-        <v>-926.708000</v>
+        <v>-926.70799999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>40869.048359</v>
@@ -5347,302 +5763,302 @@
         <v>11.352513</v>
       </c>
       <c r="CE20" s="1">
-        <v>1838.030000</v>
+        <v>1838.03</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1449.320000</v>
+        <v>-1449.32</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>40696.226810</v>
+        <v>40696.22681</v>
       </c>
       <c r="B21" s="1">
-        <v>11.304507</v>
+        <v>11.304506999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>909.847000</v>
+        <v>909.84699999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-180.020000</v>
+        <v>-180.02</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>40706.640346</v>
       </c>
       <c r="G21" s="1">
-        <v>11.307400</v>
+        <v>11.307399999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>924.624000</v>
+        <v>924.62400000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-153.049000</v>
+        <v>-153.04900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>40717.435743</v>
+        <v>40717.435743000002</v>
       </c>
       <c r="L21" s="1">
         <v>11.310399</v>
       </c>
       <c r="M21" s="1">
-        <v>944.812000</v>
+        <v>944.81200000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.512000</v>
+        <v>-111.512</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>40727.983696</v>
+        <v>40727.983696000003</v>
       </c>
       <c r="Q21" s="1">
         <v>11.313329</v>
       </c>
       <c r="R21" s="1">
-        <v>951.663000</v>
+        <v>951.66300000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-97.856600</v>
+        <v>-97.8566</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>40738.803891</v>
+        <v>40738.803891000003</v>
       </c>
       <c r="V21" s="1">
-        <v>11.316334</v>
+        <v>11.316333999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>958.625000</v>
+        <v>958.625</v>
       </c>
       <c r="X21" s="1">
-        <v>-85.132600</v>
+        <v>-85.132599999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>40749.033876</v>
+        <v>40749.033876000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.319176</v>
+        <v>11.319176000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.590000</v>
+        <v>966.59</v>
       </c>
       <c r="AC21" s="1">
-        <v>-75.389200</v>
+        <v>-75.389200000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>40759.881418</v>
+        <v>40759.881417999997</v>
       </c>
       <c r="AF21" s="1">
         <v>11.322189</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.797000</v>
+        <v>971.79700000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.051500</v>
+        <v>-74.051500000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>40770.191224</v>
+        <v>40770.191224000002</v>
       </c>
       <c r="AK21" s="1">
         <v>11.325053</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.514000</v>
+        <v>979.51400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.269600</v>
+        <v>-79.269599999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>40780.631020</v>
+        <v>40780.631020000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>11.327953</v>
+        <v>11.327953000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.805000</v>
+        <v>987.80499999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.048700</v>
+        <v>-91.048699999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>40791.090157</v>
+        <v>40791.090156999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>11.330858</v>
+        <v>11.330857999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.697000</v>
+        <v>997.697</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.809000</v>
+        <v>-108.809</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>40802.062654</v>
+        <v>40802.062654000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.333906</v>
+        <v>11.333906000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.910000</v>
+        <v>1005.91</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.559000</v>
+        <v>-124.559</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>40813.741960</v>
+        <v>40813.741959999999</v>
       </c>
       <c r="BE21" s="1">
         <v>11.337151</v>
       </c>
       <c r="BF21" s="1">
-        <v>1044.230000</v>
+        <v>1044.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.177000</v>
+        <v>-197.17699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>40824.369263</v>
+        <v>40824.369263000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.340103</v>
+        <v>11.340102999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.382000</v>
+        <v>-315.38200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>40835.357106</v>
+        <v>40835.357106000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.343155</v>
+        <v>11.343154999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1218.800000</v>
+        <v>1218.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-502.178000</v>
+        <v>-502.178</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>40845.958100</v>
+        <v>40845.958100000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.346099</v>
+        <v>11.346099000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1340.610000</v>
+        <v>1340.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-707.742000</v>
+        <v>-707.74199999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>40856.869093</v>
+        <v>40856.869093000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.349130</v>
+        <v>11.349130000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1477.840000</v>
+        <v>1477.84</v>
       </c>
       <c r="CA21" s="1">
-        <v>-926.693000</v>
+        <v>-926.69299999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>40869.591477</v>
+        <v>40869.591477000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.352664</v>
+        <v>11.352664000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1838.750000</v>
+        <v>1838.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1447.820000</v>
+        <v>-1447.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>40696.909307</v>
+        <v>40696.909307000002</v>
       </c>
       <c r="B22" s="1">
-        <v>11.304697</v>
+        <v>11.304697000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>909.829000</v>
+        <v>909.82899999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-180.188000</v>
+        <v>-180.18799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>40707.328795</v>
+        <v>40707.328795000001</v>
       </c>
       <c r="G22" s="1">
         <v>11.307591</v>
       </c>
       <c r="H22" s="1">
-        <v>924.353000</v>
+        <v>924.35299999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-153.603000</v>
+        <v>-153.60300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>40717.780993</v>
@@ -5651,73 +6067,73 @@
         <v>11.310495</v>
       </c>
       <c r="M22" s="1">
-        <v>945.087000</v>
+        <v>945.08699999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.743000</v>
+        <v>-111.74299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>40728.330400</v>
+        <v>40728.330399999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>11.313425</v>
+        <v>11.313425000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.704000</v>
+        <v>951.70399999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-97.870500</v>
+        <v>-97.870500000000007</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>40739.149634</v>
+        <v>40739.149634000001</v>
       </c>
       <c r="V22" s="1">
-        <v>11.316430</v>
+        <v>11.31643</v>
       </c>
       <c r="W22" s="1">
-        <v>958.705000</v>
+        <v>958.70500000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-85.135500</v>
+        <v>-85.135499999999993</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>40749.383557</v>
+        <v>40749.383557000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.319273</v>
+        <v>11.319273000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.559000</v>
+        <v>966.55899999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-75.511400</v>
+        <v>-75.511399999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>40760.540565</v>
+        <v>40760.540565000003</v>
       </c>
       <c r="AF22" s="1">
         <v>11.322372</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.807000</v>
+        <v>971.80700000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.027800</v>
+        <v>-74.027799999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>40770.629191</v>
@@ -5726,118 +6142,118 @@
         <v>11.325175</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.529000</v>
+        <v>979.529</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.265400</v>
+        <v>-79.2654</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>40781.069514</v>
+        <v>40781.069514000003</v>
       </c>
       <c r="AP22" s="1">
         <v>11.328075</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.827000</v>
+        <v>987.827</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.019000</v>
+        <v>-91.019000000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>40791.455709</v>
+        <v>40791.455709000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.330960</v>
+        <v>11.330959999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.697000</v>
+        <v>997.697</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.810000</v>
+        <v>-108.81</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>40802.438622</v>
+        <v>40802.438622000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.334011</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.548000</v>
+        <v>-124.548</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>40814.134287</v>
+        <v>40814.134287000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>11.337260</v>
+        <v>11.337260000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1044.230000</v>
+        <v>1044.23</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.153000</v>
+        <v>-197.15299999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>40824.747184</v>
       </c>
       <c r="BJ22" s="1">
-        <v>11.340208</v>
+        <v>11.340208000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.416000</v>
+        <v>-315.416</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>40835.782710</v>
+        <v>40835.782709999999</v>
       </c>
       <c r="BO22" s="1">
         <v>11.343273</v>
       </c>
       <c r="BP22" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-502.135000</v>
+        <v>-502.13499999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>40846.392595</v>
+        <v>40846.392594999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.346220</v>
+        <v>11.346220000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1340.640000</v>
+        <v>1340.64</v>
       </c>
       <c r="BV22" s="1">
-        <v>-707.719000</v>
+        <v>-707.71900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>40857.287718</v>
@@ -5846,255 +6262,255 @@
         <v>11.349247</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1477.740000</v>
+        <v>1477.74</v>
       </c>
       <c r="CA22" s="1">
-        <v>-926.705000</v>
+        <v>-926.70500000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>40870.131158</v>
+        <v>40870.131157999997</v>
       </c>
       <c r="CD22" s="1">
         <v>11.352814</v>
       </c>
       <c r="CE22" s="1">
-        <v>1837.110000</v>
+        <v>1837.11</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1448.720000</v>
+        <v>-1448.72</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>40697.251048</v>
+        <v>40697.251047999998</v>
       </c>
       <c r="B23" s="1">
-        <v>11.304792</v>
+        <v>11.304792000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>909.769000</v>
+        <v>909.76900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-180.277000</v>
+        <v>-180.27699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>40707.675467</v>
+        <v>40707.675467000001</v>
       </c>
       <c r="G23" s="1">
-        <v>11.307688</v>
+        <v>11.307688000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>924.354000</v>
+        <v>924.35400000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-153.410000</v>
+        <v>-153.41</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>40718.126701</v>
+        <v>40718.126701000001</v>
       </c>
       <c r="L23" s="1">
-        <v>11.310591</v>
+        <v>11.310591000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>945.033000</v>
+        <v>945.03300000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.511000</v>
+        <v>-111.511</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>40728.680542</v>
+        <v>40728.680542000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.313522</v>
+        <v>11.313522000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>951.739000</v>
+        <v>951.73900000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-97.845200</v>
+        <v>-97.845200000000006</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>40739.804816</v>
+        <v>40739.804816000003</v>
       </c>
       <c r="V23" s="1">
-        <v>11.316612</v>
+        <v>11.316611999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>958.687000</v>
+        <v>958.68700000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-85.144200</v>
+        <v>-85.144199999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>40750.043732</v>
+        <v>40750.043731999998</v>
       </c>
       <c r="AA23" s="1">
         <v>11.319457</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.685000</v>
+        <v>966.68499999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-75.477700</v>
+        <v>-75.477699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>40760.910116</v>
+        <v>40760.910115999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.322475</v>
+        <v>11.322475000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.835000</v>
+        <v>971.83500000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.043000</v>
+        <v>-74.043000000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>40770.819161</v>
+        <v>40770.819160999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.325228</v>
+        <v>11.325227999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.518000</v>
+        <v>979.51800000000003</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.262200</v>
+        <v>-79.262200000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>40781.434538</v>
+        <v>40781.434538000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.328176</v>
+        <v>11.328175999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.811000</v>
+        <v>987.81100000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.019200</v>
+        <v>-91.019199999999998</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>40791.819308</v>
+        <v>40791.819307999998</v>
       </c>
       <c r="AU23" s="1">
         <v>11.331061</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.705000</v>
+        <v>997.70500000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.811000</v>
+        <v>-108.81100000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>40802.818060</v>
+        <v>40802.818059999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.334116</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.559000</v>
+        <v>-124.559</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>40814.550438</v>
+        <v>40814.550437999998</v>
       </c>
       <c r="BE23" s="1">
         <v>11.337375</v>
       </c>
       <c r="BF23" s="1">
-        <v>1044.230000</v>
+        <v>1044.23</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.174000</v>
+        <v>-197.17400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>40825.175232</v>
+        <v>40825.175232000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.340326</v>
+        <v>11.340325999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.530000</v>
+        <v>1110.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.378000</v>
+        <v>-315.37799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>40836.176735</v>
+        <v>40836.176735000001</v>
       </c>
       <c r="BO23" s="1">
         <v>11.343382</v>
       </c>
       <c r="BP23" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-502.188000</v>
+        <v>-502.18799999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>40846.796375</v>
+        <v>40846.796374999998</v>
       </c>
       <c r="BT23" s="1">
         <v>11.346332</v>
       </c>
       <c r="BU23" s="1">
-        <v>1340.630000</v>
+        <v>1340.63</v>
       </c>
       <c r="BV23" s="1">
-        <v>-707.741000</v>
+        <v>-707.74099999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>40857.717289</v>
@@ -6103,60 +6519,60 @@
         <v>11.349366</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1477.830000</v>
+        <v>1477.83</v>
       </c>
       <c r="CA23" s="1">
-        <v>-926.790000</v>
+        <v>-926.79</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>40870.672757</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.352965</v>
+        <v>11.352964999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1839.050000</v>
+        <v>1839.05</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1448.860000</v>
+        <v>-1448.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>40697.593317</v>
+        <v>40697.593316999999</v>
       </c>
       <c r="B24" s="1">
-        <v>11.304887</v>
+        <v>11.304887000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>909.864000</v>
+        <v>909.86400000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-180.127000</v>
+        <v>-180.12700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>40708.019691</v>
+        <v>40708.019691000001</v>
       </c>
       <c r="G24" s="1">
-        <v>11.307783</v>
+        <v>11.307783000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>924.183000</v>
+        <v>924.18299999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-153.392000</v>
+        <v>-153.392</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>40718.778412</v>
@@ -6165,103 +6581,103 @@
         <v>11.310772</v>
       </c>
       <c r="M24" s="1">
-        <v>944.939000</v>
+        <v>944.93899999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.416000</v>
+        <v>-111.416</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>40729.345183</v>
+        <v>40729.345182999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.313707</v>
+        <v>11.313707000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>951.722000</v>
+        <v>951.72199999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-97.924500</v>
+        <v>-97.924499999999995</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>40740.178336</v>
+        <v>40740.178335999997</v>
       </c>
       <c r="V24" s="1">
         <v>11.316716</v>
       </c>
       <c r="W24" s="1">
-        <v>958.626000</v>
+        <v>958.62599999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-85.207600</v>
+        <v>-85.207599999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>40750.430610</v>
+        <v>40750.430610000003</v>
       </c>
       <c r="AA24" s="1">
         <v>11.319564</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.580000</v>
+        <v>966.58</v>
       </c>
       <c r="AC24" s="1">
-        <v>-75.539800</v>
+        <v>-75.5398</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>40761.253813</v>
+        <v>40761.253813000003</v>
       </c>
       <c r="AF24" s="1">
         <v>11.322571</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.832000</v>
+        <v>971.83199999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.039800</v>
+        <v>-74.0398</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>40771.169862</v>
+        <v>40771.169862000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.325325</v>
+        <v>11.325324999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.534000</v>
+        <v>979.53399999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.264200</v>
+        <v>-79.264200000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>40781.793641</v>
+        <v>40781.793640999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.328276</v>
+        <v>11.328276000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.852000</v>
+        <v>987.85199999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.026400</v>
+        <v>-91.026399999999995</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>40792.238395</v>
@@ -6270,103 +6686,103 @@
         <v>11.331177</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.702000</v>
+        <v>997.702</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.826000</v>
+        <v>-108.82599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>40803.238668</v>
+        <v>40803.238667999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.334233</v>
+        <v>11.334232999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.576000</v>
+        <v>-124.57599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>40814.887214</v>
+        <v>40814.887214000002</v>
       </c>
       <c r="BE24" s="1">
         <v>11.337469</v>
       </c>
       <c r="BF24" s="1">
-        <v>1044.230000</v>
+        <v>1044.23</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.165000</v>
+        <v>-197.16499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>40825.523423</v>
+        <v>40825.523422999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>11.340423</v>
+        <v>11.340422999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.367000</v>
+        <v>-315.36700000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>40836.596617</v>
+        <v>40836.596617000003</v>
       </c>
       <c r="BO24" s="1">
         <v>11.343499</v>
       </c>
       <c r="BP24" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-502.145000</v>
+        <v>-502.14499999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>40847.226370</v>
+        <v>40847.226369999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.346452</v>
+        <v>11.346451999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1340.600000</v>
+        <v>1340.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-707.691000</v>
+        <v>-707.69100000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>40858.133924</v>
+        <v>40858.133924000002</v>
       </c>
       <c r="BY24" s="1">
         <v>11.349482</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1477.800000</v>
+        <v>1477.8</v>
       </c>
       <c r="CA24" s="1">
-        <v>-926.770000</v>
+        <v>-926.77</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>40871.207938</v>
@@ -6375,529 +6791,530 @@
         <v>11.353113</v>
       </c>
       <c r="CE24" s="1">
-        <v>1837.520000</v>
+        <v>1837.52</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1447.780000</v>
+        <v>-1447.78</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>40698.233127</v>
       </c>
       <c r="B25" s="1">
-        <v>11.305065</v>
+        <v>11.305065000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>909.735000</v>
+        <v>909.73500000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-180.138000</v>
+        <v>-180.13800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40708.669481</v>
+        <v>40708.669480999997</v>
       </c>
       <c r="G25" s="1">
         <v>11.307964</v>
       </c>
       <c r="H25" s="1">
-        <v>924.280000</v>
+        <v>924.28</v>
       </c>
       <c r="I25" s="1">
-        <v>-153.502000</v>
+        <v>-153.50200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>40719.161820</v>
+        <v>40719.161820000001</v>
       </c>
       <c r="L25" s="1">
-        <v>11.310878</v>
+        <v>11.310878000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>945.127000</v>
+        <v>945.12699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.820000</v>
+        <v>-111.82</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>40729.726605</v>
+        <v>40729.726605000003</v>
       </c>
       <c r="Q25" s="1">
         <v>11.313813</v>
       </c>
       <c r="R25" s="1">
-        <v>951.692000</v>
+        <v>951.69200000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-97.865900</v>
+        <v>-97.865899999999996</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>40740.521537</v>
+        <v>40740.521537000001</v>
       </c>
       <c r="V25" s="1">
-        <v>11.316812</v>
+        <v>11.316812000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>958.607000</v>
+        <v>958.60699999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-85.148300</v>
+        <v>-85.148300000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>40750.779795</v>
+        <v>40750.779795000002</v>
       </c>
       <c r="AA25" s="1">
         <v>11.319661</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.614000</v>
+        <v>966.61400000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-75.484300</v>
+        <v>-75.484300000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>40761.598533</v>
+        <v>40761.598532999997</v>
       </c>
       <c r="AF25" s="1">
         <v>11.322666</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.801000</v>
+        <v>971.80100000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.030500</v>
+        <v>-74.030500000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>40771.589970</v>
+        <v>40771.589970000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.325442</v>
+        <v>11.325442000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.534000</v>
+        <v>979.53399999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.285100</v>
+        <v>-79.2851</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>40782.218249</v>
+        <v>40782.218248999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.328394</v>
+        <v>11.328393999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.833000</v>
+        <v>987.83299999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.026500</v>
+        <v>-91.026499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>40792.549386</v>
+        <v>40792.549385999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.331264</v>
+        <v>11.331263999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.693000</v>
+        <v>997.69299999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.815000</v>
+        <v>-108.815</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>40803.535276</v>
+        <v>40803.535276000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.334315</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.560000</v>
+        <v>-124.56</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>40815.250782</v>
+        <v>40815.250782000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.337570</v>
+        <v>11.337569999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1044.220000</v>
+        <v>1044.22</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.168000</v>
+        <v>-197.16800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>40825.897440</v>
+        <v>40825.897440000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.340527</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.348000</v>
+        <v>-315.34800000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>40836.991921</v>
+        <v>40836.991921000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.343609</v>
+        <v>11.343609000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1218.770000</v>
+        <v>1218.77</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-502.135000</v>
+        <v>-502.13499999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>40847.993185</v>
+        <v>40847.993184999999</v>
       </c>
       <c r="BT25" s="1">
         <v>11.346665</v>
       </c>
       <c r="BU25" s="1">
-        <v>1340.630000</v>
+        <v>1340.63</v>
       </c>
       <c r="BV25" s="1">
-        <v>-707.693000</v>
+        <v>-707.69299999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>40858.581320</v>
+        <v>40858.581319999998</v>
       </c>
       <c r="BY25" s="1">
         <v>11.349606</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1477.790000</v>
+        <v>1477.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-926.635000</v>
+        <v>-926.63499999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>40871.750066</v>
+        <v>40871.750066000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.353264</v>
+        <v>11.353263999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1838.180000</v>
+        <v>1838.18</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1449.120000</v>
+        <v>-1449.12</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>40698.618024</v>
+        <v>40698.618024000003</v>
       </c>
       <c r="B26" s="1">
-        <v>11.305172</v>
+        <v>11.305172000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>909.754000</v>
+        <v>909.75400000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-180.102000</v>
+        <v>-180.102</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>40709.055834</v>
+        <v>40709.055833999999</v>
       </c>
       <c r="G26" s="1">
         <v>11.308071</v>
       </c>
       <c r="H26" s="1">
-        <v>924.188000</v>
+        <v>924.18799999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-153.123000</v>
+        <v>-153.12299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>40719.512987</v>
+        <v>40719.512987000002</v>
       </c>
       <c r="L26" s="1">
         <v>11.310976</v>
       </c>
       <c r="M26" s="1">
-        <v>945.081000</v>
+        <v>945.08100000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.728000</v>
+        <v>-111.72799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>40730.075293</v>
+        <v>40730.075293000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.313910</v>
+        <v>11.31391</v>
       </c>
       <c r="R26" s="1">
-        <v>951.669000</v>
+        <v>951.66899999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-97.878700</v>
+        <v>-97.878699999999995</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>40740.867784</v>
+        <v>40740.867784000002</v>
       </c>
       <c r="V26" s="1">
         <v>11.316908</v>
       </c>
       <c r="W26" s="1">
-        <v>958.639000</v>
+        <v>958.63900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-85.122600</v>
+        <v>-85.122600000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>40751.262897</v>
+        <v>40751.262897000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.319795</v>
+        <v>11.319794999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.640000</v>
+        <v>966.64</v>
       </c>
       <c r="AC26" s="1">
-        <v>-75.444800</v>
+        <v>-75.444800000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>40762.019636</v>
+        <v>40762.019635999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.322783</v>
+        <v>11.322782999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.819000</v>
+        <v>971.81899999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.049400</v>
+        <v>-74.049400000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>40771.877649</v>
+        <v>40771.877649000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>11.325522</v>
+        <v>11.325521999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.546000</v>
+        <v>979.54600000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.239700</v>
+        <v>-79.239699999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>40782.514328</v>
+        <v>40782.514327999997</v>
       </c>
       <c r="AP26" s="1">
         <v>11.328476</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.821000</v>
+        <v>987.82100000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.021700</v>
+        <v>-91.021699999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>40792.914026</v>
+        <v>40792.914025999999</v>
       </c>
       <c r="AU26" s="1">
         <v>11.331365</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.706000</v>
+        <v>997.70600000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.788000</v>
+        <v>-108.788</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>40803.896363</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.334416</v>
+        <v>11.334415999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.540000</v>
+        <v>-124.54</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>40815.610876</v>
+        <v>40815.610875999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.337670</v>
+        <v>11.337669999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1044.200000</v>
+        <v>1044.2</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.156000</v>
+        <v>-197.15600000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>40826.271420</v>
+        <v>40826.271419999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.340631</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.351000</v>
+        <v>-315.351</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>40837.413549</v>
+        <v>40837.413548999997</v>
       </c>
       <c r="BO26" s="1">
         <v>11.343726</v>
       </c>
       <c r="BP26" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-502.154000</v>
+        <v>-502.154</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>40848.101328</v>
+        <v>40848.101327999997</v>
       </c>
       <c r="BT26" s="1">
         <v>11.346695</v>
       </c>
       <c r="BU26" s="1">
-        <v>1340.620000</v>
+        <v>1340.62</v>
       </c>
       <c r="BV26" s="1">
-        <v>-707.680000</v>
+        <v>-707.68</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>40859.003875</v>
+        <v>40859.003875000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.349723</v>
+        <v>11.349722999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1477.700000</v>
+        <v>1477.7</v>
       </c>
       <c r="CA26" s="1">
-        <v>-926.727000</v>
+        <v>-926.72699999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>40872.292222</v>
+        <v>40872.292221999996</v>
       </c>
       <c r="CD26" s="1">
         <v>11.353415</v>
       </c>
       <c r="CE26" s="1">
-        <v>1838.510000</v>
+        <v>1838.51</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1447.920000</v>
+        <v>-1447.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>